--- a/cypress/Excels/Adding address.xlsx
+++ b/cypress/Excels/Adding address.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>karthik Sherigar</t>
+  </si>
+  <si>
+    <t>Existing</t>
   </si>
 </sst>
 </file>
@@ -468,27 +471,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,102 +500,94 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>560103</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H3" s="1">
         <v>576103</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/cypress/Excels/Adding address.xlsx
+++ b/cypress/Excels/Adding address.xlsx
@@ -91,10 +91,10 @@
     <t>namana</t>
   </si>
   <si>
-    <t>karthik Sherigar</t>
-  </si>
-  <si>
     <t>Existing</t>
+  </si>
+  <si>
+    <t>Ravi</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -530,12 +530,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>

--- a/cypress/Excels/Adding address.xlsx
+++ b/cypress/Excels/Adding address.xlsx
@@ -94,7 +94,7 @@
     <t>Existing</t>
   </si>
   <si>
-    <t>Ravi</t>
+    <t>Sandesh</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/cypress/Excels/Adding address.xlsx
+++ b/cypress/Excels/Adding address.xlsx
@@ -19,9 +19,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>karthik.s@pococare.com</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -94,7 +91,10 @@
     <t>Existing</t>
   </si>
   <si>
-    <t>Sandesh</t>
+    <t>playstoretest@pococare.com</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -497,98 +497,98 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="1">
         <v>560103</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H3" s="1">
         <v>576103</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
